--- a/数据整理/stocks/A股/科创板/688025-杰普特.xlsx
+++ b/数据整理/stocks/A股/科创板/688025-杰普特.xlsx
@@ -1,138 +1,51 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="2021-Q3" sheetId="1" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
+  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="29">
-  <si>
-    <t>基金代码</t>
-  </si>
-  <si>
-    <t>基金名称</t>
-  </si>
-  <si>
-    <t>基金金额</t>
-  </si>
-  <si>
-    <t>股票总仓位</t>
-  </si>
-  <si>
-    <t>仓位占比</t>
-  </si>
-  <si>
-    <t>持有市值(亿元)</t>
-  </si>
-  <si>
-    <t>仓位排名</t>
-  </si>
-  <si>
-    <t>002861</t>
-  </si>
-  <si>
-    <t>004223</t>
-  </si>
-  <si>
-    <t>005104</t>
-  </si>
-  <si>
-    <t>005105</t>
-  </si>
-  <si>
-    <t>工银瑞信智能制造股票</t>
-  </si>
-  <si>
-    <t>金信多策略精选灵活配置混合</t>
-  </si>
-  <si>
-    <t>富荣福康混合A</t>
-  </si>
-  <si>
-    <t>富荣福康混合C</t>
-  </si>
-  <si>
-    <t>1.51</t>
-  </si>
-  <si>
-    <t>0.20</t>
-  </si>
-  <si>
-    <t>0.09</t>
-  </si>
-  <si>
-    <t>0.05</t>
-  </si>
-  <si>
-    <t>94.36</t>
-  </si>
-  <si>
-    <t>94.90</t>
-  </si>
-  <si>
-    <t>86.33</t>
-  </si>
-  <si>
-    <t>4.49</t>
-  </si>
-  <si>
-    <t>5.35</t>
-  </si>
-  <si>
-    <t>3.81</t>
-  </si>
-  <si>
-    <t>0.0678</t>
-  </si>
-  <si>
-    <t>0.0107</t>
-  </si>
-  <si>
-    <t>0.0034</t>
-  </si>
-  <si>
-    <t>0.0019</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <numFmts count="0"/>
+  <fonts count="3">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <b val="1"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -155,21 +68,97 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+  <cellXfs count="3">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -457,141 +446,261 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:H5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
-      <c r="B1" s="1" t="s">
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>002861</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>工银瑞信智能制造股票</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>1.51</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.36</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.49</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0678</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>004223</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>金信多策略精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.90</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.35</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0107</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>005104</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>富荣福康混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>86.33</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.81</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0034</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F2" t="s">
-        <v>22</v>
-      </c>
-      <c r="G2" t="s">
-        <v>25</v>
-      </c>
-      <c r="H2">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" s="1">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E3" t="s">
-        <v>20</v>
-      </c>
-      <c r="F3" t="s">
-        <v>23</v>
-      </c>
-      <c r="G3" t="s">
-        <v>26</v>
-      </c>
-      <c r="H3">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="A4" s="1">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E4" t="s">
-        <v>21</v>
-      </c>
-      <c r="F4" t="s">
-        <v>24</v>
-      </c>
-      <c r="G4" t="s">
-        <v>27</v>
-      </c>
-      <c r="H4">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
-      <c r="A5" s="1">
-        <v>3</v>
-      </c>
-      <c r="B5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D5" t="s">
-        <v>18</v>
-      </c>
-      <c r="E5" t="s">
-        <v>21</v>
-      </c>
-      <c r="F5" t="s">
-        <v>24</v>
-      </c>
-      <c r="G5" t="s">
-        <v>28</v>
-      </c>
-      <c r="H5">
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>005105</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>富荣福康混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>86.33</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.81</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0019</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
         <v>4</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>4</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.08</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/科创板/688025-杰普特.xlsx
+++ b/数据整理/stocks/A股/科创板/688025-杰普特.xlsx
@@ -7,7 +7,8 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -659,7 +660,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -670,17 +671,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -690,13 +711,331 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>001743</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>诺安优选回报灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>10.34</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>91.26</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.82</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.3950</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>002861</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>工银瑞信智能制造股票</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>2.08</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.73</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.40</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0915</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>004223</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>金信多策略精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>50.19</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.66</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0732</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>501001</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>财通多策略精选混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1.41</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>84.00</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.46</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0347</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>005517</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>富国新趋势灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>26.20</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.45</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0145</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>540007</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>汇丰晋信中小盘股票</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.26</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.40</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0102</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>005518</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>富国新趋势灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>26.20</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.45</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0027</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>7</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.62</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
           <t>2021-Q3</t>
         </is>
       </c>
-      <c r="C2" t="n">
+      <c r="C3" t="n">
         <v>4</v>
       </c>
-      <c r="D2" t="n">
+      <c r="D3" t="n">
         <v>0.08</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/科创板/688025-杰普特.xlsx
+++ b/数据整理/stocks/A股/科创板/688025-杰普特.xlsx
@@ -8,7 +8,8 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -982,7 +983,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -993,17 +994,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1013,14 +1034,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>7</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.62</v>
+          <t>002861</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>工银瑞信智能制造股票</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.93</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.40</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0590</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -1029,13 +1072,119 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>001721</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>工银瑞信新增益混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>5.57</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>30.21</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0574</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>7</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.62</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
           <t>2021-Q3</t>
         </is>
       </c>
-      <c r="C3" t="n">
+      <c r="C4" t="n">
         <v>4</v>
       </c>
-      <c r="D3" t="n">
+      <c r="D4" t="n">
         <v>0.08</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/科创板/688025-杰普特.xlsx
+++ b/数据整理/stocks/A股/科创板/688025-杰普特.xlsx
@@ -9,7 +9,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1115,7 +1116,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1126,17 +1127,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1146,14 +1167,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>2</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.12</v>
+          <t>506000</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>南方科创板 3 年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>25.24</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>86.17</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.46</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.1257</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="3">
@@ -1162,14 +1205,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>7</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.62</v>
+          <t>012496</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>同泰行业优选股票A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.29</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0328</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -1178,13 +1243,287 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>002630</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>江信瑞福灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>43.20</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.16</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0200</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>002631</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>江信瑞福灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>43.20</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.16</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0191</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>012497</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>同泰行业优选股票C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.29</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0081</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>008842</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>同泰远见灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.62</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.77</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0080</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>008843</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>同泰远见灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.62</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.77</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0025</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>7</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1.22</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>2</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>7</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.62</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
           <t>2021-Q3</t>
         </is>
       </c>
-      <c r="C4" t="n">
+      <c r="C5" t="n">
         <v>4</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D5" t="n">
         <v>0.08</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/科创板/688025-杰普特.xlsx
+++ b/数据整理/stocks/A股/科创板/688025-杰普特.xlsx
@@ -6,11 +6,11 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -454,205 +454,97 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>002861</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>工银瑞信智能制造股票</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>1.51</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>94.36</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>4.49</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.0678</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
         <v>7</v>
       </c>
+      <c r="D2" t="n">
+        <v>1.22</v>
+      </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="n">
+      <c r="A3" s="2" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>004223</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>金信多策略精选灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>0.20</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>94.90</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>5.35</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.0107</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>6</v>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>2</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.12</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="n">
+      <c r="A4" s="2" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>005104</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>富荣福康混合A</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>0.09</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>86.33</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>3.81</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.0034</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>7</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.62</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
         <v>4</v>
       </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>005105</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>富荣福康混合C</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>0.05</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>86.33</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>3.81</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.0019</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>4</v>
+      <c r="D5" t="n">
+        <v>0.08</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -713,36 +605,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>001743</t>
+          <t>506000</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>诺安优选回报灵活配置混合</t>
+          <t>南方科创板 3 年定期开放混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>10.34</t>
+          <t>25.24</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>91.26</t>
+          <t>86.17</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>3.82</t>
+          <t>4.46</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.3950</t>
+          <t>1.1257</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3">
@@ -751,36 +643,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>002861</t>
+          <t>012496</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>工银瑞信智能制造股票</t>
+          <t>同泰行业优选股票A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2.08</t>
+          <t>1.01</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>94.73</t>
+          <t>94.29</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>4.40</t>
+          <t>3.25</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0915</t>
+          <t>0.0328</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -789,36 +681,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>004223</t>
+          <t>002630</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>金信多策略精选灵活配置混合</t>
+          <t>江信瑞福灵活配置混合A</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2.00</t>
+          <t>0.48</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>50.19</t>
+          <t>43.20</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>3.66</t>
+          <t>4.16</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0732</t>
+          <t>0.0200</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -827,36 +719,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>501001</t>
+          <t>002631</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>财通多策略精选混合（LOF）</t>
+          <t>江信瑞福灵活配置混合C</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>1.41</t>
+          <t>0.46</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>84.00</t>
+          <t>43.20</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2.46</t>
+          <t>4.16</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.0347</t>
+          <t>0.0191</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6">
@@ -865,36 +757,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>005517</t>
+          <t>012497</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>富国新趋势灵活配置混合A</t>
+          <t>同泰行业优选股票C</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>0.59</t>
+          <t>0.25</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>26.20</t>
+          <t>94.29</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>2.45</t>
+          <t>3.25</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.0145</t>
+          <t>0.0081</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7">
@@ -903,36 +795,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>540007</t>
+          <t>008842</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>汇丰晋信中小盘股票</t>
+          <t>同泰远见灵活配置混合A</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>0.73</t>
+          <t>0.29</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>93.26</t>
+          <t>94.62</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>1.40</t>
+          <t>2.77</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.0102</t>
+          <t>0.0080</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8">
@@ -941,36 +833,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>005518</t>
+          <t>008843</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>富国新趋势灵活配置混合C</t>
+          <t>同泰远见灵活配置混合C</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>0.11</t>
+          <t>0.09</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>26.20</t>
+          <t>94.62</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>2.45</t>
+          <t>2.77</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.0027</t>
+          <t>0.0025</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -1167,36 +1059,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>506000</t>
+          <t>001743</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>南方科创板 3 年定期开放混合</t>
+          <t>诺安优选回报灵活配置混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>25.24</t>
+          <t>10.34</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>86.17</t>
+          <t>91.26</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>4.46</t>
+          <t>3.82</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>1.1257</t>
+          <t>0.3950</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -1205,36 +1097,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>012496</t>
+          <t>002861</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>同泰行业优选股票A</t>
+          <t>工银瑞信智能制造股票</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>1.01</t>
+          <t>2.08</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>94.29</t>
+          <t>94.73</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>3.25</t>
+          <t>4.40</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0328</t>
+          <t>0.0915</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4">
@@ -1243,36 +1135,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>002630</t>
+          <t>004223</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>江信瑞福灵活配置混合A</t>
+          <t>金信多策略精选灵活配置混合</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0.48</t>
+          <t>2.00</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>43.20</t>
+          <t>50.19</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>4.16</t>
+          <t>3.66</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0200</t>
+          <t>0.0732</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5">
@@ -1281,36 +1173,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>002631</t>
+          <t>501001</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>江信瑞福灵活配置混合C</t>
+          <t>财通多策略精选混合（LOF）</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>0.46</t>
+          <t>1.41</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>43.20</t>
+          <t>84.00</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>4.16</t>
+          <t>2.46</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.0191</t>
+          <t>0.0347</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6">
@@ -1319,36 +1211,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>012497</t>
+          <t>005517</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>同泰行业优选股票C</t>
+          <t>富国新趋势灵活配置混合A</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>0.25</t>
+          <t>0.59</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>94.29</t>
+          <t>26.20</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>3.25</t>
+          <t>2.45</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.0081</t>
+          <t>0.0145</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7">
@@ -1357,36 +1249,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>008842</t>
+          <t>540007</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>同泰远见灵活配置混合A</t>
+          <t>汇丰晋信中小盘股票</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>0.29</t>
+          <t>0.73</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>94.62</t>
+          <t>93.26</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>2.77</t>
+          <t>1.40</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.0080</t>
+          <t>0.0102</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8">
@@ -1395,36 +1287,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>008843</t>
+          <t>005518</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>同泰远见灵活配置混合C</t>
+          <t>富国新趋势灵活配置混合C</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>0.09</t>
+          <t>0.11</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>94.62</t>
+          <t>26.20</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>2.77</t>
+          <t>2.45</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.0025</t>
+          <t>0.0027</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -1438,96 +1330,204 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>日期</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>持有数量(只)</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="n">
+      <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
+          <t>002861</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>工银瑞信智能制造股票</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>1.51</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.36</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.49</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0678</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>7</v>
       </c>
-      <c r="D2" t="n">
-        <v>1.22</v>
-      </c>
     </row>
     <row r="3">
-      <c r="A3" s="2" t="n">
+      <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
+          <t>004223</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>金信多策略精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.90</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.35</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0107</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="D3" t="n">
-        <v>0.12</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>7</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.62</v>
+          <t>005104</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>富荣福康混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>86.33</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.81</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0034</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="2" t="n">
+      <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
+          <t>005105</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>富荣福康混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>86.33</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.81</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0019</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
         <v>4</v>
       </c>
-      <c r="D5" t="n">
-        <v>0.08</v>
-      </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/数据整理/stocks/A股/科创板/688025-杰普特.xlsx
+++ b/数据整理/stocks/A股/科创板/688025-杰普特.xlsx
@@ -7,10 +7,11 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -454,7 +455,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -485,14 +486,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D2" t="n">
-        <v>1.22</v>
+        <v>0.14</v>
       </c>
     </row>
     <row r="3">
@@ -501,14 +502,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="D3" t="n">
-        <v>0.12</v>
+        <v>1.22</v>
       </c>
     </row>
     <row r="4">
@@ -517,14 +518,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="D4" t="n">
-        <v>0.62</v>
+        <v>0.12</v>
       </c>
     </row>
     <row r="5">
@@ -533,13 +534,29 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>7</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.62</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2021-Q3</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>4</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>0.08</v>
       </c>
     </row>
@@ -549,6 +566,366 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>004809</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>新疆前海联合润丰灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>87.05</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.66</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0476</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>005310</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>广发电子信息传媒股票A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>1.55</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>89.36</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.67</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0414</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>004044</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>金鹰转型动力灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>88.13</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.39</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0263</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>014246</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>大摩现代服务业混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>66.96</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.93</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0101</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>001613</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>长城久祥灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>84.63</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.76</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0090</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>014247</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>大摩现代服务业混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>66.96</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.93</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0036</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>010236</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>广发电子信息传媒股票C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>89.36</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.67</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0035</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>005935</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>新疆前海联合润丰灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>87.05</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.66</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -870,7 +1247,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1002,7 +1379,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1324,7 +1701,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/科创板/688025-杰普特.xlsx
+++ b/数据整理/stocks/A股/科创板/688025-杰普特.xlsx
@@ -7,11 +7,12 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -455,7 +456,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -486,14 +487,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="D2" t="n">
-        <v>0.14</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="3">
@@ -502,14 +503,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D3" t="n">
-        <v>1.22</v>
+        <v>0.14</v>
       </c>
     </row>
     <row r="4">
@@ -518,14 +519,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="D4" t="n">
-        <v>0.12</v>
+        <v>1.22</v>
       </c>
     </row>
     <row r="5">
@@ -534,14 +535,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="D5" t="n">
-        <v>0.62</v>
+        <v>0.12</v>
       </c>
     </row>
     <row r="6">
@@ -550,13 +551,29 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>7</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.62</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2021-Q3</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>4</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>0.08</v>
       </c>
     </row>
@@ -566,6 +583,176 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>002863</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>金信深圳成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>91.56</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.15</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0376</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>014246</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>大摩现代服务业混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>86.98</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.87</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0100</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>014247</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>大摩现代服务业混合C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>86.98</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.87</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0035</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -925,7 +1112,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1247,7 +1434,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1379,7 +1566,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1701,7 +1888,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
